--- a/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
@@ -15,12 +15,15 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
   <si>
     <t>2782300021-03</t>
   </si>
@@ -562,6 +565,14 @@
   </si>
   <si>
     <t>아이시스(평화)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +976,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1080,6 +1091,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1209,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1219,13 +1245,28 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,1140 +1593,1248 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="4.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="D1" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="6" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="6" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="6" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="6" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="6" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="8" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="6" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
         <v>90</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6">
         <v>92</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="6">
         <v>93</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
         <v>94</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
         <v>95</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
+      <c r="D96" s="5"/>
+    </row>
+    <row r="97" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
         <v>96</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
         <v>98</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
         <v>99</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
         <v>100</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
         <v>101</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="6" t="s">
         <v>117</v>
       </c>
+      <c r="D102" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2704,7 +2853,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>136</v>
       </c>
     </row>

--- a/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">data!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1592,15 +1592,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="44.75" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>

--- a/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
+++ b/2. 연구사업(2023년)/4. 실험계획/연구사업 시료번호_정리.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="263">
   <si>
     <t>2782300021-03</t>
   </si>
@@ -572,7 +572,310 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
+    <t>4782300044-01</t>
+  </si>
+  <si>
+    <t>4782300044-02</t>
+  </si>
+  <si>
+    <t>4782300044-03</t>
+  </si>
+  <si>
+    <t>4782300044-04</t>
+  </si>
+  <si>
+    <t>4782300044-05</t>
+  </si>
+  <si>
+    <t>4782300044-06</t>
+  </si>
+  <si>
+    <t>4782300044-07</t>
+  </si>
+  <si>
+    <t>4782300044-08</t>
+  </si>
+  <si>
+    <t>4782300044-09</t>
+  </si>
+  <si>
+    <t>4782300044-10</t>
+  </si>
+  <si>
+    <t>4782300045-01</t>
+  </si>
+  <si>
+    <t>4782300045-02</t>
+  </si>
+  <si>
+    <t>4782300045-03</t>
+  </si>
+  <si>
+    <t>4782300045-04</t>
+  </si>
+  <si>
+    <t>4782300045-05</t>
+  </si>
+  <si>
+    <t>4782300045-06</t>
+  </si>
+  <si>
+    <t>4782300045-07</t>
+  </si>
+  <si>
+    <t>4782300045-08</t>
+  </si>
+  <si>
+    <t>4782300045-09</t>
+  </si>
+  <si>
+    <t>4782300045-10</t>
+  </si>
+  <si>
+    <t>4782300046-01</t>
+  </si>
+  <si>
+    <t>4782300046-02</t>
+  </si>
+  <si>
+    <t>4782300046-03</t>
+  </si>
+  <si>
+    <t>4782300046-04</t>
+  </si>
+  <si>
+    <t>4782300046-05</t>
+  </si>
+  <si>
+    <t>4782300046-06</t>
+  </si>
+  <si>
+    <t>4782300046-07</t>
+  </si>
+  <si>
+    <t>4782300046-08</t>
+  </si>
+  <si>
+    <t>4782300046-09</t>
+  </si>
+  <si>
+    <t>4782300046-10</t>
+  </si>
+  <si>
+    <t>4782300047-01</t>
+  </si>
+  <si>
+    <t>4782300047-02</t>
+  </si>
+  <si>
+    <t>4782300047-03</t>
+  </si>
+  <si>
+    <t>4782300047-04</t>
+  </si>
+  <si>
+    <t>4782300047-05</t>
+  </si>
+  <si>
+    <t>4782300047-06</t>
+  </si>
+  <si>
+    <t>4782300047-07</t>
+  </si>
+  <si>
+    <t>4782300047-08</t>
+  </si>
+  <si>
+    <t>4782300047-09</t>
+  </si>
+  <si>
+    <t>4782300047-10</t>
+  </si>
+  <si>
+    <t>4782300048-01</t>
+  </si>
+  <si>
+    <t>4782300048-02</t>
+  </si>
+  <si>
+    <t>4782300048-03</t>
+  </si>
+  <si>
+    <t>4782300048-04</t>
+  </si>
+  <si>
+    <t>4782300048-05</t>
+  </si>
+  <si>
+    <t>4782300048-06</t>
+  </si>
+  <si>
+    <t>4782300048-07</t>
+  </si>
+  <si>
+    <t>4782300048-08</t>
+  </si>
+  <si>
+    <t>4782300048-09</t>
+  </si>
+  <si>
+    <t>4782300048-10</t>
+  </si>
+  <si>
+    <t>4782300049-01</t>
+  </si>
+  <si>
+    <t>4782300049-02</t>
+  </si>
+  <si>
+    <t>4782300049-03</t>
+  </si>
+  <si>
+    <t>4782300049-04</t>
+  </si>
+  <si>
+    <t>4782300049-05</t>
+  </si>
+  <si>
+    <t>4782300049-06</t>
+  </si>
+  <si>
+    <t>4782300049-07</t>
+  </si>
+  <si>
+    <t>4782300049-08</t>
+  </si>
+  <si>
+    <t>4782300049-09</t>
+  </si>
+  <si>
+    <t>4782300049-10</t>
+  </si>
+  <si>
+    <t>4782300050-01</t>
+  </si>
+  <si>
+    <t>4782300050-02</t>
+  </si>
+  <si>
+    <t>4782300050-03</t>
+  </si>
+  <si>
+    <t>4782300050-04</t>
+  </si>
+  <si>
+    <t>4782300050-05</t>
+  </si>
+  <si>
+    <t>4782300050-06</t>
+  </si>
+  <si>
+    <t>4782300050-07</t>
+  </si>
+  <si>
+    <t>4782300050-08</t>
+  </si>
+  <si>
+    <t>4782300050-09</t>
+  </si>
+  <si>
+    <t>4782300050-10</t>
+  </si>
+  <si>
+    <t>4782300051-01</t>
+  </si>
+  <si>
+    <t>4782300051-02</t>
+  </si>
+  <si>
+    <t>4782300051-03</t>
+  </si>
+  <si>
+    <t>4782300051-04</t>
+  </si>
+  <si>
+    <t>4782300051-05</t>
+  </si>
+  <si>
+    <t>4782300051-06</t>
+  </si>
+  <si>
+    <t>4782300051-07</t>
+  </si>
+  <si>
+    <t>4782300051-08</t>
+  </si>
+  <si>
+    <t>4782300051-09</t>
+  </si>
+  <si>
+    <t>4782300051-10</t>
+  </si>
+  <si>
+    <t>4782300052-01</t>
+  </si>
+  <si>
+    <t>4782300052-02</t>
+  </si>
+  <si>
+    <t>4782300052-03</t>
+  </si>
+  <si>
+    <t>4782300052-04</t>
+  </si>
+  <si>
+    <t>4782300052-05</t>
+  </si>
+  <si>
+    <t>4782300052-06</t>
+  </si>
+  <si>
+    <t>4782300052-07</t>
+  </si>
+  <si>
+    <t>4782300052-08</t>
+  </si>
+  <si>
+    <t>4782300052-09</t>
+  </si>
+  <si>
+    <t>4782300052-10</t>
+  </si>
+  <si>
+    <t>4782300053-01</t>
+  </si>
+  <si>
+    <t>4782300053-02</t>
+  </si>
+  <si>
+    <t>4782300053-03</t>
+  </si>
+  <si>
+    <t>4782300053-04</t>
+  </si>
+  <si>
+    <t>4782300053-05</t>
+  </si>
+  <si>
+    <t>4782300053-06</t>
+  </si>
+  <si>
+    <t>4782300053-07</t>
+  </si>
+  <si>
+    <t>4782300053-08</t>
+  </si>
+  <si>
+    <t>4782300053-09</t>
+  </si>
+  <si>
+    <t>4782300053-10</t>
+  </si>
+  <si>
+    <t>4782300053-11</t>
+  </si>
+  <si>
+    <t>접수번호</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1592,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1616,7 +1919,7 @@
         <v>128</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1629,7 +1932,9 @@
       <c r="C2" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -1641,7 +1946,9 @@
       <c r="C3" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1653,7 +1960,9 @@
       <c r="C4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -1665,7 +1974,9 @@
       <c r="C5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1677,7 +1988,9 @@
       <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1689,7 +2002,9 @@
       <c r="C7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1701,7 +2016,9 @@
       <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1713,7 +2030,9 @@
       <c r="C9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
@@ -1725,7 +2044,9 @@
       <c r="C10" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
@@ -1737,7 +2058,9 @@
       <c r="C11" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
@@ -1749,7 +2072,9 @@
       <c r="C12" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
@@ -1761,7 +2086,9 @@
       <c r="C13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1773,7 +2100,9 @@
       <c r="C14" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1785,7 +2114,9 @@
       <c r="C15" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
@@ -1797,7 +2128,9 @@
       <c r="C16" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
@@ -1809,7 +2142,9 @@
       <c r="C17" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -1821,7 +2156,9 @@
       <c r="C18" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -1833,7 +2170,9 @@
       <c r="C19" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
@@ -1845,7 +2184,9 @@
       <c r="C20" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
@@ -1857,7 +2198,9 @@
       <c r="C21" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
@@ -1869,7 +2212,9 @@
       <c r="C22" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
@@ -1881,7 +2226,9 @@
       <c r="C23" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
@@ -1893,7 +2240,9 @@
       <c r="C24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
@@ -1905,7 +2254,9 @@
       <c r="C25" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
@@ -1917,7 +2268,9 @@
       <c r="C26" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
@@ -1929,7 +2282,9 @@
       <c r="C27" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -1941,7 +2296,9 @@
       <c r="C28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
@@ -1953,7 +2310,9 @@
       <c r="C29" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
@@ -1965,7 +2324,9 @@
       <c r="C30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="31" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
@@ -1977,7 +2338,9 @@
       <c r="C31" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="32" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
@@ -1989,7 +2352,9 @@
       <c r="C32" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
@@ -2001,7 +2366,9 @@
       <c r="C33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
@@ -2013,7 +2380,9 @@
       <c r="C34" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="35" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
@@ -2025,7 +2394,9 @@
       <c r="C35" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
@@ -2037,7 +2408,9 @@
       <c r="C36" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="37" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -2049,7 +2422,9 @@
       <c r="C37" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
@@ -2061,7 +2436,9 @@
       <c r="C38" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="39" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
@@ -2073,7 +2450,9 @@
       <c r="C39" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
@@ -2085,7 +2464,9 @@
       <c r="C40" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
@@ -2097,7 +2478,9 @@
       <c r="C41" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
@@ -2109,7 +2492,9 @@
       <c r="C42" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="43" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
@@ -2121,7 +2506,9 @@
       <c r="C43" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="44" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
@@ -2133,7 +2520,9 @@
       <c r="C44" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="45" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
@@ -2145,7 +2534,9 @@
       <c r="C45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
@@ -2157,7 +2548,9 @@
       <c r="C46" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
@@ -2169,7 +2562,9 @@
       <c r="C47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
@@ -2181,7 +2576,9 @@
       <c r="C48" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
@@ -2193,7 +2590,9 @@
       <c r="C49" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
@@ -2205,7 +2604,9 @@
       <c r="C50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
@@ -2217,7 +2618,9 @@
       <c r="C51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
@@ -2229,7 +2632,9 @@
       <c r="C52" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="53" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
@@ -2241,7 +2646,9 @@
       <c r="C53" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
@@ -2253,7 +2660,9 @@
       <c r="C54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
@@ -2265,7 +2674,9 @@
       <c r="C55" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
@@ -2277,7 +2688,9 @@
       <c r="C56" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
@@ -2289,7 +2702,9 @@
       <c r="C57" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -2301,7 +2716,9 @@
       <c r="C58" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
@@ -2313,7 +2730,9 @@
       <c r="C59" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
@@ -2325,7 +2744,9 @@
       <c r="C60" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
@@ -2337,7 +2758,9 @@
       <c r="C61" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
@@ -2349,7 +2772,9 @@
       <c r="C62" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
@@ -2361,7 +2786,9 @@
       <c r="C63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
@@ -2373,7 +2800,9 @@
       <c r="C64" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
@@ -2385,7 +2814,9 @@
       <c r="C65" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
@@ -2397,7 +2828,9 @@
       <c r="C66" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
@@ -2409,7 +2842,9 @@
       <c r="C67" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
@@ -2421,7 +2856,9 @@
       <c r="C68" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
@@ -2433,7 +2870,9 @@
       <c r="C69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
@@ -2445,7 +2884,9 @@
       <c r="C70" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
@@ -2457,7 +2898,9 @@
       <c r="C71" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
@@ -2469,7 +2912,9 @@
       <c r="C72" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
@@ -2481,7 +2926,9 @@
       <c r="C73" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
@@ -2493,7 +2940,9 @@
       <c r="C74" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
@@ -2505,7 +2954,9 @@
       <c r="C75" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
@@ -2517,7 +2968,9 @@
       <c r="C76" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
@@ -2529,7 +2982,9 @@
       <c r="C77" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
@@ -2541,7 +2996,9 @@
       <c r="C78" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
@@ -2553,7 +3010,9 @@
       <c r="C79" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
@@ -2565,7 +3024,9 @@
       <c r="C80" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
@@ -2577,7 +3038,9 @@
       <c r="C81" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
@@ -2589,7 +3052,9 @@
       <c r="C82" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
@@ -2601,7 +3066,9 @@
       <c r="C83" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
@@ -2613,7 +3080,9 @@
       <c r="C84" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
@@ -2625,7 +3094,9 @@
       <c r="C85" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
@@ -2637,7 +3108,9 @@
       <c r="C86" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
@@ -2649,7 +3122,9 @@
       <c r="C87" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
@@ -2661,7 +3136,9 @@
       <c r="C88" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
@@ -2673,7 +3150,9 @@
       <c r="C89" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
@@ -2685,7 +3164,9 @@
       <c r="C90" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
@@ -2697,7 +3178,9 @@
       <c r="C91" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
@@ -2709,7 +3192,9 @@
       <c r="C92" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
@@ -2721,7 +3206,9 @@
       <c r="C93" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
@@ -2733,7 +3220,9 @@
       <c r="C94" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
@@ -2745,7 +3234,9 @@
       <c r="C95" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
@@ -2757,7 +3248,9 @@
       <c r="C96" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
@@ -2769,7 +3262,9 @@
       <c r="C97" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
@@ -2781,7 +3276,9 @@
       <c r="C98" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
@@ -2793,7 +3290,9 @@
       <c r="C99" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="100" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
@@ -2805,7 +3304,9 @@
       <c r="C100" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="101" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
@@ -2817,7 +3318,9 @@
       <c r="C101" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
@@ -2829,7 +3332,9 @@
       <c r="C102" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
